--- a/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\UnityProject\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BBCFC3-31F8-48D4-9456-867E409B18C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E44EB86-204D-4D84-AF6B-ECADA235395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2664" yWindow="648" windowWidth="17316" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,9 @@
   <si>
     <t>Server</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
   </si>
 </sst>
 </file>
@@ -72,6 +75,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -79,6 +83,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -122,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +144,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,18 +452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F7"/>
+  <dimension ref="C3:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -501,7 +509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -527,6 +535,160 @@
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>20003</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20004</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20005</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20006</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20007</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20008</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20009</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20010</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20011</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20012</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20013</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
